--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="bonus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
@@ -38,13 +40,44 @@
   <si>
     <t>sin(x+y)</t>
   </si>
+  <si>
+    <t>равномерная</t>
+  </si>
+  <si>
+    <t>буква</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>Г</t>
+  </si>
+  <si>
+    <t>Ш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разрывная </t>
+  </si>
+  <si>
+    <t>неравномерная</t>
+  </si>
+  <si>
+    <t>x2+y2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -149,6 +182,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -161,15 +197,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7760,8 +7794,8 @@
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="TextBox 93"/>
@@ -8192,7 +8226,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="94" name="TextBox 93"/>
@@ -9152,8 +9186,8 @@
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="96" name="TextBox 95"/>
@@ -9587,7 +9621,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="96" name="TextBox 95"/>
@@ -11190,8 +11224,8 @@
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="TextBox 100"/>
@@ -11622,7 +11656,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="101" name="TextBox 100"/>
@@ -15106,8 +15140,8 @@
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="TextBox 128"/>
@@ -15538,7 +15572,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="129" name="TextBox 128"/>
@@ -15843,8 +15877,8 @@
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134"/>
@@ -16278,7 +16312,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="TextBox 134"/>
@@ -16571,8 +16605,8 @@
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="TextBox 135"/>
@@ -17003,7 +17037,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="TextBox 135"/>
@@ -17260,8 +17294,8 @@
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="TextBox 139"/>
@@ -17692,7 +17726,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="TextBox 139"/>
@@ -17997,8 +18031,8 @@
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="TextBox 140"/>
@@ -18432,7 +18466,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="TextBox 140"/>
@@ -18725,8 +18759,8 @@
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="TextBox 141"/>
@@ -19157,7 +19191,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="TextBox 141"/>
@@ -19414,8 +19448,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="TextBox 142"/>
@@ -19846,7 +19880,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="TextBox 142"/>
@@ -20151,8 +20185,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="TextBox 143"/>
@@ -20586,7 +20620,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="TextBox 143"/>
@@ -20879,8 +20913,8 @@
       <xdr:rowOff>23814</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1024732" cy="405607"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="TextBox 144"/>
@@ -21311,7 +21345,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="TextBox 144"/>
@@ -21551,6 +21585,1643 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑛=16) </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="321883"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1857375" y="269875"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1857375" y="269875"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢^∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2701925" y="320675"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2701925" y="320675"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="321883"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5559425" y="263525"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5559425" y="263525"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢^∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6391275" y="314325"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6391275" y="314325"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="321883"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838325" y="2143125"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838325" y="2143125"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢^∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2708275" y="2206625"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2708275" y="2206625"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="321883"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5546725" y="2149475"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∗</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5546725" y="2149475"/>
+              <a:ext cx="603114" cy="321883"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢^∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603114" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6384925" y="2212975"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>||</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6384925" y="2212975"/>
+              <a:ext cx="603114" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>||𝑢−𝑢^∗ ||</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -21828,7 +23499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -21880,16 +23551,16 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>7</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>2686.2771080000002</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <f>D3*D3*D3*D3+C3*C3*C3*C3</f>
         <v>2657</v>
       </c>
@@ -21897,15 +23568,15 @@
         <f>ABS(E3-F$3)</f>
         <v>29.277108000000226</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
         <f>G3/G4</f>
         <v>3.6848989428657983</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="13">
         <f>G4/G5</f>
         <v>3.897190302199093</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <f>G5/G6</f>
         <v>3.9724961564750445</v>
       </c>
@@ -21915,15 +23586,15 @@
       <c r="M3" s="10">
         <v>63.696469999999998</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="14">
         <f>M3/M4</f>
         <v>3.6726485530288921</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <f>M4/M5</f>
         <v>3.8939744158242449</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="17">
         <f>M5/M6</f>
         <v>3.9710104225176308</v>
       </c>
@@ -21932,82 +23603,82 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1">
         <v>2664.9451589999999</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G6" si="0">ABS(E4-F$3)</f>
         <v>7.945158999999876</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="L4" s="1">
         <v>4</v>
       </c>
       <c r="M4" s="11">
         <v>17.34347</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1">
         <v>2659.038689</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>2.0386889999999767</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="L5" s="1">
         <v>8</v>
       </c>
       <c r="M5" s="9">
         <v>4.4539249999999999</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>2657.5132010000002</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0.5132010000002083</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="L6" s="3">
         <v>16</v>
       </c>
       <c r="M6" s="9">
         <v>1.12161</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -22040,16 +23711,16 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>7</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>-1.6664969999999999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <f>SIN(C9+D9)</f>
         <v>-0.99999020655070348</v>
       </c>
@@ -22057,15 +23728,15 @@
         <f>ABS(E9-F$9)</f>
         <v>0.66650679344929642</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <f>G9/G10</f>
         <v>4.7970907175166166</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <f>G10/G11</f>
         <v>4.2349630633960018</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <f>G11/G12</f>
         <v>4.0604742751379348</v>
       </c>
@@ -22075,15 +23746,15 @@
       <c r="M9" s="10">
         <v>1.531371</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="14">
         <f>M9/M10</f>
         <v>4.8980847083403036</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="17">
         <f>M10/M11</f>
         <v>4.2486321755576952</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="17">
         <f>M11/M12</f>
         <v>4.0626963712822999</v>
       </c>
@@ -22092,82 +23763,82 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1">
         <v>-1.13893</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="1">
         <f t="shared" ref="G10:G12" si="1">ABS(E10-F$9)</f>
         <v>0.13893979344929652</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="L10" s="1">
         <v>4</v>
       </c>
       <c r="M10" s="11">
         <v>0.31264690000000001</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1">
         <v>-1.0327980000000001</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>3.2807793449296629E-2</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="L11" s="1">
         <v>8</v>
       </c>
       <c r="M11" s="9">
         <v>7.3587659999999999E-2</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>16</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1">
         <v>-1.00807</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>8.0797934492965462E-3</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="L12" s="3">
         <v>16</v>
       </c>
       <c r="M12" s="9">
         <v>1.8113009999999999E-2</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
@@ -22225,31 +23896,31 @@
       <c r="C17" s="10">
         <v>0.22113189999999999</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <f>C17/C18</f>
         <v>3.8809599944961848</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <f>C18/C19</f>
         <v>4.1589564554755647</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="17">
         <f>C19/C20</f>
         <v>4.161140339847079</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>2</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>1.2</v>
       </c>
       <c r="K17" s="1">
         <v>9.7984530000000003</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="13">
         <f>I17*I17*I17+J17*J17*J17</f>
         <v>9.7279999999999998</v>
       </c>
@@ -22257,15 +23928,15 @@
         <f>K17-L$17</f>
         <v>7.0453000000000543E-2</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="13">
         <f>M17/M18</f>
         <v>4.3683655753968207</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="13">
         <f>M18/M19</f>
         <v>5.3052631578941281</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="13">
         <f>M19/M20</f>
         <v>5.2961672473846786</v>
       </c>
@@ -22277,25 +23948,25 @@
       <c r="C18" s="12">
         <v>5.697866E-2</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="1">
         <v>9.7441279999999999</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="1">
         <f t="shared" ref="M18:M20" si="2">K18-L$17</f>
         <v>1.6128000000000142E-2</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
@@ -22304,25 +23975,25 @@
       <c r="C19" s="9">
         <v>1.3700230000000001E-2</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="H19" s="1">
         <v>8</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="1">
         <v>9.7310400000000001</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="1">
         <f t="shared" si="2"/>
         <v>3.0400000000003757E-3</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
@@ -22331,25 +24002,25 @@
       <c r="C20" s="9">
         <v>3.2924220000000001E-3</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="H20" s="3">
         <v>16</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="1">
         <v>9.7285740000000001</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="1">
         <f t="shared" si="2"/>
         <v>5.740000000002965E-4</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -22386,31 +24057,31 @@
       <c r="C23" s="9">
         <v>3.2827059999999998E-2</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <f>C23/C24</f>
         <v>4.5960040445097681</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="17">
         <f>C24/C25</f>
         <v>4.8620932838310118</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="17">
         <f>C25/C26</f>
         <v>4.3597366984021457</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>1.2</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="13">
         <v>2.1</v>
       </c>
       <c r="K23" s="1">
         <v>-0.13996600000000001</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="13">
         <f>SIN(I23+J23)</f>
         <v>-0.15774569414324821</v>
       </c>
@@ -22418,15 +24089,15 @@
         <f>ABS(K23-L$23)</f>
         <v>1.7779694143248204E-2</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="13">
         <f>M23/M24</f>
         <v>4.5383058230540669</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="13">
         <f>M24/M25</f>
         <v>5.1031966020634121</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="13">
         <f>M25/M26</f>
         <v>4.8072780105342057</v>
       </c>
@@ -22438,25 +24109,25 @@
       <c r="C24" s="9">
         <v>7.1425220000000001E-3</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="H24" s="1">
         <v>4</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="1">
         <v>-0.15382799999999999</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="1">
         <f t="shared" ref="M24:M26" si="3">ABS(K24-L$23)</f>
         <v>3.9176941432482182E-3</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
@@ -22465,25 +24136,25 @@
       <c r="C25" s="9">
         <v>1.4690219999999999E-3</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
       <c r="H25" s="1">
         <v>8</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="1">
         <v>-0.15697800000000001</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="1">
         <f t="shared" si="3"/>
         <v>7.6769414324820429E-4</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
@@ -22492,49 +24163,28 @@
       <c r="C26" s="9">
         <v>3.3695200000000001E-4</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
       <c r="H26" s="3">
         <v>16</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="1">
         <v>-0.157586</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="1">
         <f t="shared" si="3"/>
         <v>1.5969414324820685E-4</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="F17:F20"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
     <mergeCell ref="P3:P6"/>
@@ -22550,9 +24200,342 @@
     <mergeCell ref="I17:I20"/>
     <mergeCell ref="N17:N20"/>
     <mergeCell ref="O17:O20"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="P23:P26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="O23:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.364848E-16</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1.361552E-14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1.256545E-3</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0.32386169999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.554534E-16</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3.7176389999999999E-14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20">
+        <v>6.0427300000000001E-4</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.4650397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.5111689999999999E-16</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4.1904710000000001E-14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="20">
+        <v>5.0165530000000004E-4</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.46770780000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1.4576720000000001E-16</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1.8841110000000001E-14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="20">
+        <v>9.2861180000000003E-4</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.32386169999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.1996230000000001E-16</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1.051582E-13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.458105E-4</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.66998380000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1.6713580000000001E-16</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2.8030440000000001E-14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1.4307529999999999E-4</v>
+      </c>
+      <c r="I8" s="20">
+        <v>8.3189029999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1.4987740000000001E-16</v>
+      </c>
+      <c r="D12" s="20">
+        <v>6.0890440000000001E-15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1.2491959999999999E-3</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.1207434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2.061177E-16</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1.6061060000000001E-14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="20">
+        <v>8.8328069999999998E-4</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.20596909999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1.9972739999999999E-16</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1.7404669999999999E-14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20">
+        <v>7.58634E-4</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.20618929999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1.1478489999999999E-16</v>
+      </c>
+      <c r="D15" s="20">
+        <v>5.5466720000000003E-15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1.281501E-3</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.15656049999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1.5874149999999999E-16</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2.9110719999999998E-14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="20">
+        <v>3.5773700000000001E-4</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0.31206070000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1.8321839999999999E-16</v>
+      </c>
+      <c r="D17" s="20">
+        <v>9.2728549999999999E-15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="20">
+        <v>7.1977040000000003E-4</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.1140495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>